--- a/Data/groups/Exergy_Smarts_Groups.xlsx
+++ b/Data/groups/Exergy_Smarts_Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmarc\Documents\Exergy\Data\groups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\exergy\Exergy-main\Exergy-main\Data\groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433472DB-667B-4836-91F0-B2EE46BA0595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E379CAD5-4E91-43C8-9B7F-82A35D3B621F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57503" yWindow="-98" windowWidth="28994" windowHeight="15675" xr2:uid="{F8802D93-8699-44BD-BEF7-D6FB10D01025}"/>
+    <workbookView xWindow="4704" yWindow="2952" windowWidth="17280" windowHeight="8880" xr2:uid="{F8802D93-8699-44BD-BEF7-D6FB10D01025}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="139">
   <si>
     <t>Group</t>
   </si>
@@ -239,9 +239,6 @@
     <t>[C;D3](=[O,N,S,F,Cl,Br,I])([O,N,S,F,Cl,Br,I])([O,N,S,F,Cl,Br,I])</t>
   </si>
   <si>
-    <t>[CH2;X4]([#6])([#6])</t>
-  </si>
-  <si>
     <t>[CH;X4]([#6])([#6])([#6])</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>[#6]~[*]~[*]~[#16]</t>
   </si>
   <si>
-    <t>[#8]~[*]~[*]~[#8]</t>
-  </si>
-  <si>
     <t>[#8]~[*]~[*]~[#9]</t>
   </si>
   <si>
@@ -341,27 +335,15 @@
     <t>[#53]~[*]~[*]~[*]~[#53]</t>
   </si>
   <si>
-    <t>[#6]~[*]~[*]~[*]~[*]~[#35]</t>
-  </si>
-  <si>
-    <t>[#8]~[*]~[*]~[*]~[*]~[#8]</t>
-  </si>
-  <si>
     <t>[#35]~[*]~[*]~[*]~[*]~[#35]</t>
   </si>
   <si>
     <t>[#53]~[*]~[*]~[*]~[*]~[#53]</t>
   </si>
   <si>
-    <t>[#6]~[*]~[*]~[*]~[*]~[*]~[#6]</t>
-  </si>
-  <si>
     <t>[#6]~[*]~[*]~[*]~[*]~[*]~[#53]</t>
   </si>
   <si>
-    <t>[#6]~[*]~[*]~[*]~[*]~[*]~[*]~[#6]</t>
-  </si>
-  <si>
     <t>[#6]~[*]~[*]~[*]~[*]~[*]~[*]~[#53]</t>
   </si>
   <si>
@@ -398,22 +380,79 @@
     <t>[#6]~[*]~[*]~[*]~[*]~[*]~[*]~[*]~[*]~[#53]</t>
   </si>
   <si>
-    <t>[#8]~[*]~[*]~[*]~[*]~[*]~[*]~[*]~[*]~[#8]</t>
+    <t>filter_no_end_wildcard_connection</t>
+  </si>
+  <si>
+    <t>[#7]~[*]~[*]~[*]~[*]-[#8]</t>
+  </si>
+  <si>
+    <t>filtergroup_26</t>
+  </si>
+  <si>
+    <t>[CH2]([#6])([#6])</t>
+  </si>
+  <si>
+    <t>[#8]~[*]~[*]~[#8;!R]</t>
+  </si>
+  <si>
+    <t>[#8]-[*]~[*]~[*]~[*]~[#8]</t>
+  </si>
+  <si>
+    <t>[#6]~[*]~[*]~[*]~[*]~[*]~[*]~[#6;!R]</t>
+  </si>
+  <si>
+    <t>[$([CX3;D2,D4]),$([CX2;D1]),$([CX4;D4;$(C-[!#6])])]~[*]~[*]~[*]~[*]~[*]~[$([CX3;D2,D4]),$([CX2;D1]),$([CX4;D4;$(C-[!#6])])]</t>
+  </si>
+  <si>
+    <t>[#8]~[*]~[*]~[*]~[*]~[*]~[*]~[*]~[*]~[#8;!R]</t>
+  </si>
+  <si>
+    <t>[#6]~[*;!R2]~[*;!R2]~[*;!R2]~[*;!R2]~[#35]</t>
   </si>
   <si>
     <t>[#6]~[*]~[*]~[#8]</t>
   </si>
   <si>
-    <t>filter_no_end_wildcard_connection</t>
-  </si>
-  <si>
-    <t>[#7]~[*]~[*]~[*]~[*]-[#8]</t>
-  </si>
-  <si>
-    <t>[Cl]-[C,I,Br,Si,Cl,F,O,N,S]</t>
-  </si>
-  <si>
-    <t>filtergroup_26</t>
+    <t>[Cl]~[C,I,Br,Si,Cl,F,O,N,S]</t>
+  </si>
+  <si>
+    <t>padelcol</t>
+  </si>
+  <si>
+    <t>padelfp</t>
+  </si>
+  <si>
+    <t>AtomPairs2D</t>
+  </si>
+  <si>
+    <t>AD2D180</t>
+  </si>
+  <si>
+    <t>AD2D320</t>
+  </si>
+  <si>
+    <t>AD2D336</t>
+  </si>
+  <si>
+    <t>AD2D391</t>
+  </si>
+  <si>
+    <t>AD2D469</t>
+  </si>
+  <si>
+    <t>AtomPairs2DCount</t>
+  </si>
+  <si>
+    <t>APC2D3_C_O</t>
+  </si>
+  <si>
+    <t>APC2D3_C_S</t>
+  </si>
+  <si>
+    <t>APC2D5_N_O</t>
+  </si>
+  <si>
+    <t>APC2D9_O_O</t>
   </si>
 </sst>
 </file>
@@ -831,18 +870,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4156A17E-DDF8-4584-84D3-DA273A14DF88}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.796875" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,10 +910,16 @@
         <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -894,7 +939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -917,7 +962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -940,7 +985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -960,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -980,7 +1025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1000,7 +1045,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1020,7 +1065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1040,7 +1085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1060,7 +1105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1080,7 +1125,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1103,7 +1148,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1123,7 +1168,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1143,7 +1188,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1163,7 +1208,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1183,7 +1228,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1203,7 +1248,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1223,7 +1268,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1246,12 +1291,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="C20">
         <v>0.1709</v>
@@ -1260,15 +1305,15 @@
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21">
         <v>-8.3942999999999994</v>
@@ -1277,12 +1322,12 @@
         <v>3.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>-9.1153999999999993</v>
@@ -1291,7 +1336,7 @@
         <v>-7.9799999999999996E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1305,12 +1350,12 @@
         <v>-1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24">
         <v>-17.720700000000001</v>
@@ -1319,12 +1364,12 @@
         <v>-3.7499999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C25">
         <v>-17.716999999999999</v>
@@ -1333,18 +1378,18 @@
         <v>-4.4699999999999997E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <v>-66.883099999999999</v>
@@ -1353,12 +1398,12 @@
         <v>-3.1E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C27">
         <v>-10.3048</v>
@@ -1367,15 +1412,15 @@
         <v>-1.1299999999999999E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C28">
         <v>7.0242000000000004</v>
@@ -1384,15 +1429,15 @@
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29">
         <v>31.574100000000001</v>
@@ -1401,15 +1446,15 @@
         <v>2.1100000000000001E-2</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30">
         <v>70.526300000000006</v>
@@ -1418,12 +1463,12 @@
         <v>7.3899999999999993E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31">
         <v>-128.60159999999999</v>
@@ -1432,12 +1477,12 @@
         <v>-0.32179999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32">
         <v>-190.435</v>
@@ -1445,16 +1490,13 @@
       <c r="D32">
         <v>-6.0299999999999999E-2</v>
       </c>
-      <c r="J32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33">
         <v>33.291200000000003</v>
@@ -1463,18 +1505,18 @@
         <v>1.12E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J33" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34">
         <v>252.67070000000001</v>
@@ -1483,18 +1525,18 @@
         <v>-7.7000000000000002E-3</v>
       </c>
       <c r="E34" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J34" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>111.6784</v>
@@ -1503,18 +1545,18 @@
         <v>-0.38569999999999999</v>
       </c>
       <c r="E35" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J35" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36">
         <v>21.8093</v>
@@ -1523,18 +1565,18 @@
         <v>1.06E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J36" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37">
         <v>-206.9804</v>
@@ -1543,18 +1585,18 @@
         <v>-7.3999999999999996E-2</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J37" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38">
         <v>45.318399999999997</v>
@@ -1563,18 +1605,18 @@
         <v>0.1114</v>
       </c>
       <c r="E38" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J38" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39">
         <v>-2.9005000000000001</v>
@@ -1583,18 +1625,18 @@
         <v>-5.2900000000000003E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J39" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40">
         <v>-50.664000000000001</v>
@@ -1603,18 +1645,18 @@
         <v>-9.8199999999999996E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J40" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41">
         <v>-27.411799999999999</v>
@@ -1623,18 +1665,18 @@
         <v>-3.4099999999999998E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J41" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C42">
         <v>-198.99789999999999</v>
@@ -1643,18 +1685,24 @@
         <v>-0.10299999999999999</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J42" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K42" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C43">
         <v>103.39409999999999</v>
@@ -1663,18 +1711,18 @@
         <v>8.6400000000000005E-2</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J43" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C44">
         <v>-16.305199999999999</v>
@@ -1683,18 +1731,18 @@
         <v>7.2800000000000004E-2</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J44" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>3.1766999999999999</v>
@@ -1703,18 +1751,18 @@
         <v>-7.7700000000000005E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J45" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>-225.76589999999999</v>
@@ -1723,18 +1771,18 @@
         <v>-0.14960000000000001</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J46" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47">
         <v>-89.9679</v>
@@ -1743,18 +1791,18 @@
         <v>-1.34E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J47" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48">
         <v>28.774799999999999</v>
@@ -1763,18 +1811,18 @@
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J48" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C49">
         <v>1.016</v>
@@ -1783,18 +1831,24 @@
         <v>2.4199999999999999E-2</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J49" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K49" t="s">
+        <v>130</v>
+      </c>
+      <c r="L49" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="C50">
         <v>-195.1515</v>
@@ -1803,18 +1857,24 @@
         <v>-6.1600000000000002E-2</v>
       </c>
       <c r="E50" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J50" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K50" t="s">
+        <v>131</v>
+      </c>
+      <c r="L50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C51">
         <v>-72.456100000000006</v>
@@ -1823,18 +1883,18 @@
         <v>4.1399999999999999E-2</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J51" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C52">
         <v>45.208300000000001</v>
@@ -1843,18 +1903,18 @@
         <v>7.46E-2</v>
       </c>
       <c r="E52" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J52" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C53">
         <v>-3.6608999999999998</v>
@@ -1863,18 +1923,24 @@
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="E53" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J53" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C54">
         <v>95.144099999999995</v>
@@ -1883,18 +1949,18 @@
         <v>0.1091</v>
       </c>
       <c r="E54" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J54" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C55">
         <v>-6.2847</v>
@@ -1903,18 +1969,24 @@
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J55" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="K55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L55" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C56">
         <v>6.5053000000000001</v>
@@ -1923,18 +1995,18 @@
         <v>-4.7999999999999996E-3</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J56" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C57">
         <v>5.2865000000000002</v>
@@ -1943,18 +2015,18 @@
         <v>4.4400000000000002E-2</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J57" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C58">
         <v>-38.569400000000002</v>
@@ -1963,18 +2035,18 @@
         <v>2.2800000000000001E-2</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J58" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C59">
         <v>-204.97790000000001</v>
@@ -1983,18 +2055,18 @@
         <v>-0.13370000000000001</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J59" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60">
         <v>14.3041</v>
@@ -2003,15 +2075,15 @@
         <v>-2.3599999999999999E-2</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C61">
         <v>-228.3227</v>
@@ -2020,15 +2092,15 @@
         <v>-7.2900000000000006E-2</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C62">
         <v>-73.399500000000003</v>
@@ -2037,15 +2109,15 @@
         <v>-0.10730000000000001</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63">
         <v>-111.7146</v>
@@ -2054,15 +2126,15 @@
         <v>0.115</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64">
         <v>-169.9589</v>
@@ -2071,15 +2143,15 @@
         <v>-3.5000000000000001E-3</v>
       </c>
       <c r="E64" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C65">
         <v>0.56889999999999996</v>
@@ -2088,15 +2160,15 @@
         <v>8.6E-3</v>
       </c>
       <c r="E65" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C66">
         <v>-8.9350000000000005</v>
@@ -2105,15 +2177,15 @@
         <v>1.3100000000000001E-2</v>
       </c>
       <c r="E66" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C67">
         <v>0.63349999999999995</v>
@@ -2122,15 +2194,21 @@
         <v>-2.7000000000000001E-3</v>
       </c>
       <c r="E67" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="K67" t="s">
+        <v>135</v>
+      </c>
+      <c r="L67" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>6.8742999999999999</v>
@@ -2139,15 +2217,21 @@
         <v>2.7400000000000001E-2</v>
       </c>
       <c r="E68" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="K68" t="s">
+        <v>136</v>
+      </c>
+      <c r="L68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C69">
         <v>-24.077100000000002</v>
@@ -2156,15 +2240,15 @@
         <v>-4.2900000000000001E-2</v>
       </c>
       <c r="E69" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C70">
         <v>35.710599999999999</v>
@@ -2173,15 +2257,15 @@
         <v>1.9900000000000001E-2</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71">
         <v>19.946899999999999</v>
@@ -2190,15 +2274,15 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C72">
         <v>-36.312600000000003</v>
@@ -2207,15 +2291,21 @@
         <v>-3.3700000000000001E-2</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="K72" t="s">
+        <v>137</v>
+      </c>
+      <c r="L72" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C73">
         <v>20.543800000000001</v>
@@ -2224,15 +2314,15 @@
         <v>-5.9999999999999995E-4</v>
       </c>
       <c r="E73" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C74">
         <v>-26.837399999999999</v>
@@ -2241,15 +2331,15 @@
         <v>-6.1199999999999997E-2</v>
       </c>
       <c r="E74" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C75">
         <v>4.2601000000000004</v>
@@ -2258,15 +2348,15 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="E75" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C76">
         <v>-1.2615000000000001</v>
@@ -2275,15 +2365,15 @@
         <v>-1.49E-2</v>
       </c>
       <c r="E76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C77">
         <v>1.6946000000000001</v>
@@ -2292,15 +2382,15 @@
         <v>-5.9999999999999995E-4</v>
       </c>
       <c r="E77" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C78">
         <v>-242.678</v>
@@ -2309,15 +2399,21 @@
         <v>-0.1022</v>
       </c>
       <c r="E78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="K78" t="s">
+        <v>138</v>
+      </c>
+      <c r="L78" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C79">
         <v>17.293399999999998</v>
@@ -2326,10 +2422,11 @@
         <v>-1.3100000000000001E-2</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>